--- a/项目文件/设计文档/表头测试项.xlsx
+++ b/项目文件/设计文档/表头测试项.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,54 @@
   </si>
   <si>
     <t>清除设备日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备模式选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备语言选择检测 0-英文，1为中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：网络一带四，1：modbusRTU 级联32台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相数选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准/中性选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0： 不带日志， 1：带日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件自动检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -396,6 +444,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -405,28 +479,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,14 +525,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -749,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -760,50 +849,50 @@
     <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
+    <col min="4" max="4" width="36.375" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -812,67 +901,67 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -881,108 +970,108 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -991,83 +1080,152 @@
       <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E25" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
+    <row r="26" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4" t="s">
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B4:B8"/>
@@ -1076,6 +1234,8 @@
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="E12:E16"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
